--- a/biology/Médecine/Interstitium/Interstitium.xlsx
+++ b/biology/Médecine/Interstitium/Interstitium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'interstitium ou espace interstitiel est un ensemble de compartiments remplis de liquide situés entre les cellules au sein d'un tissu biologique[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'interstitium ou espace interstitiel est un ensemble de compartiments remplis de liquide situés entre les cellules au sein d'un tissu biologique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L’interstitium rénal, dont les atteintes sont à l’origine de néphropathies interstitielles.
 L’interstitium pulmonaire, dont les atteintes sont à l’origine de pneumopathies interstitielles.</t>
@@ -542,7 +556,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Neil D. Theise, « Structure and Distribution of an Unrecognized Interstitium in Human Tissues », sur Scientific Reports (DOI 10.1038/s41598-018-23062-6, consulté le 2 avril 2018)
 </t>
